--- a/Tests/Tests - Cases.xlsx
+++ b/Tests/Tests - Cases.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9270C930-AB62-4E08-9BB9-445AA562CA78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B354899-7781-4E78-91A4-2237F243845B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Circulation Reason" sheetId="3" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="Labor Data" sheetId="5" r:id="rId5"/>
     <sheet name="Emergency Data" sheetId="6" r:id="rId6"/>
     <sheet name="Assistance Data" sheetId="7" r:id="rId7"/>
-    <sheet name="PeopleToAttend Information" sheetId="8" r:id="rId8"/>
+    <sheet name="People-To-Attend Info" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -993,7 +993,7 @@
   <sheetPr codeName="Hoja7"/>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
@@ -1063,8 +1063,8 @@
   <sheetPr codeName="Hoja8"/>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
